--- a/doc/KeyV1/KeyV1_LipidMapName/standard_dict_V1_newname_102b.xlsx
+++ b/doc/KeyV1/KeyV1_LipidMapName/standard_dict_V1_newname_102b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1\KeyV1_newname\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LipidMapName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="3" r:id="rId1"/>
@@ -3657,7 +3657,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3694,6 +3694,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3708,7 +3714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3733,6 +3739,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4040,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M471"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4099,7 @@
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F2">
@@ -4120,7 +4127,7 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F3">
@@ -5914,7 +5921,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>7.8160950600000003</v>
       </c>
       <c r="F67">
@@ -6193,8 +6200,8 @@
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E77" s="16">
-        <f>ROUND(D77/C77*100000*F77/2.5,8)/2</f>
+      <c r="E77">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F77" s="16">
@@ -6417,8 +6424,8 @@
         <f>VLOOKUP(B85,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E85" s="16">
-        <f>ROUND(D85/C85*100000*F85/2.5,8)/2</f>
+      <c r="E85">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F85" s="16">
@@ -6865,8 +6872,8 @@
         <f>VLOOKUP(B101,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E101" s="16">
-        <f>ROUND(D101/C101*100000*F101/2.5,8)/2</f>
+      <c r="E101">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F101" s="16">
@@ -6921,8 +6928,8 @@
         <f>VLOOKUP(B103,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E103" s="16">
-        <f>ROUND(D103/C103*100000*F103/2.5,8)/2</f>
+      <c r="E103">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F103" s="16">
@@ -7173,8 +7180,8 @@
         <f>VLOOKUP(B112,StdInfo!B:E,2,FALSE)</f>
         <v>0.37990000000000002</v>
       </c>
-      <c r="E112" s="16">
-        <f>ROUND(D112/C112*100000*F112/2.5,8)/2</f>
+      <c r="E112">
+        <f t="shared" si="3"/>
         <v>17.013948675000002</v>
       </c>
       <c r="F112" s="16">
@@ -7706,7 +7713,7 @@
         <v>0.38040000000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>33.983581180000002</v>
       </c>
       <c r="F131">
@@ -9498,7 +9505,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>8.2787515999999997</v>
       </c>
       <c r="F195">
@@ -10337,8 +10344,8 @@
         <f>VLOOKUP(B225,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E225" s="16">
-        <f>ROUND(D225/C225*100000*F225/2.5,8)/2</f>
+      <c r="E225">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F225" s="16">
@@ -10729,8 +10736,8 @@
         <f>VLOOKUP(B239,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E239" s="16">
-        <f>ROUND(D239/C239*100000*F239/2.5,8)/2</f>
+      <c r="E239">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F239" s="16">
@@ -11093,8 +11100,8 @@
         <f>VLOOKUP(B252,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E252" s="16">
-        <f>ROUND(D252/C252*100000*F252/2.5,8)/2</f>
+      <c r="E252">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F252" s="16">
@@ -11149,8 +11156,8 @@
         <f>VLOOKUP(B254,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E254" s="16">
-        <f>ROUND(D254/C254*100000*F254/2.5,8)/2</f>
+      <c r="E254">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F254" s="16">
@@ -11290,7 +11297,7 @@
         <v>0.01</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>1.3234033700000001</v>
       </c>
       <c r="F259">
@@ -12213,8 +12220,8 @@
         <f>VLOOKUP(B292,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E292" s="16">
-        <f>ROUND(D292/C292*100000*F292/2.5,8)/2</f>
+      <c r="E292">
+        <f t="shared" si="9"/>
         <v>0.66347840999999996</v>
       </c>
       <c r="F292" s="16">
@@ -13082,7 +13089,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>0.33263681</v>
       </c>
       <c r="F323">
@@ -14874,7 +14881,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>0.34827615000000001</v>
       </c>
       <c r="F387">
@@ -16666,7 +16673,7 @@
         <v>0.1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>14.09224785</v>
       </c>
       <c r="F451">
@@ -17248,8 +17255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G688" sqref="G688"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17298,7 +17305,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F2">
@@ -17326,7 +17333,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F3">
@@ -18025,15 +18032,15 @@
         <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="16">
-        <f>ROUND(D28/C28*100000*F28/2.5,8)/2</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="24">
         <f>VLOOKUP(B28,StdInfo!B:E,3,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G28" s="22" t="b">
+      <c r="G28" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18249,15 +18256,15 @@
         <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="16">
-        <f>ROUND(D36/C36*100000*F36/2.5,8)/2</f>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="24">
         <f>VLOOKUP(B36,StdInfo!B:E,3,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G36" s="22" t="b">
+      <c r="G36" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18333,15 +18340,15 @@
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="16">
-        <f>ROUND(D39/C39*100000*F39/2.5,8)/2</f>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="24">
         <f>VLOOKUP(B39,StdInfo!B:E,3,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G39" s="22" t="b">
+      <c r="G39" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18837,15 +18844,15 @@
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E57" s="16">
-        <f>ROUND(D57/C57*100000*F57/2.5,8)/2</f>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="24">
         <f>VLOOKUP(B57,StdInfo!B:E,3,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G57" s="22" t="b">
+      <c r="G57" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -19118,7 +19125,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>0.21513024</v>
       </c>
       <c r="F67">
@@ -19453,15 +19460,15 @@
         <f>VLOOKUP(B79,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="16">
-        <f>ROUND(D79/C79*100000*F79/2.5,8)/2</f>
+      <c r="E79">
+        <f t="shared" si="2"/>
         <v>0.42107696500000003</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="24">
         <f>VLOOKUP(B79,StdInfo!B:E,3,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G79" s="22" t="b">
+      <c r="G79" s="24" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20910,7 +20917,7 @@
         <v>0.03</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>3.4433285499999999</v>
       </c>
       <c r="F131">
@@ -22702,7 +22709,7 @@
         <v>0.13</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F195">
@@ -24494,7 +24501,7 @@
         <v>0.13</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F259">
@@ -26286,7 +26293,7 @@
         <v>0.13</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F323">
@@ -28078,7 +28085,7 @@
         <v>0.13</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F387">
@@ -29870,7 +29877,7 @@
         <v>0.13</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E514" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F451">
@@ -31662,7 +31669,7 @@
         <v>0.13</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="17">ROUND(D515/C515*100000*F515/2.5,8)</f>
+        <f t="shared" ref="E515:E578" si="17">ROUND(D515/C515*100000*F515/2.5,8)/IF(G515=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F515">
@@ -33454,7 +33461,7 @@
         <v>0.13</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="19">ROUND(D579/C579*100000*F579/2.5,8)</f>
+        <f t="shared" ref="E579:E642" si="19">ROUND(D579/C579*100000*F579/2.5,8)/IF(G579=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F579">
@@ -35246,7 +35253,7 @@
         <v>0.13</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="21">ROUND(D643/C643*100000*F643/2.5,8)</f>
+        <f t="shared" ref="E643:E706" si="21">ROUND(D643/C643*100000*F643/2.5,8)/IF(G643=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F643">
@@ -36507,13 +36514,13 @@
       </c>
       <c r="E688">
         <f t="shared" si="21"/>
-        <v>0.70642011000000005</v>
-      </c>
-      <c r="F688">
+        <v>0.35321005500000002</v>
+      </c>
+      <c r="F688" s="24">
         <f>VLOOKUP(B688,StdInfo!B:E,3,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G688" t="b">
+      <c r="G688" s="24" t="b">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
@@ -37038,7 +37045,7 @@
         <v>0.13</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E713" si="23">ROUND(D707/C707*100000*F707/2.5,8)</f>
+        <f t="shared" ref="E707:E713" si="23">ROUND(D707/C707*100000*F707/2.5,8)/IF(G707=TRUE,2,1)</f>
         <v>14.81481481</v>
       </c>
       <c r="F707">

--- a/doc/KeyV1/KeyV1_LipidMapName/standard_dict_V1_newname_102b.xlsx
+++ b/doc/KeyV1/KeyV1_LipidMapName/standard_dict_V1_newname_102b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1\KeyV1_newname\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LipidMapName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="3" r:id="rId1"/>
@@ -4040,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M471"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4092,7 @@
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F2">
@@ -4120,7 +4120,7 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F3">
@@ -5914,7 +5914,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>7.8160950600000003</v>
       </c>
       <c r="F67">
@@ -6193,8 +6193,8 @@
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E77" s="16">
-        <f>ROUND(D77/C77*100000*F77/2.5,8)/2</f>
+      <c r="E77">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F77" s="16">
@@ -6417,8 +6417,8 @@
         <f>VLOOKUP(B85,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E85" s="16">
-        <f>ROUND(D85/C85*100000*F85/2.5,8)/2</f>
+      <c r="E85">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F85" s="16">
@@ -6865,8 +6865,8 @@
         <f>VLOOKUP(B101,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E101" s="16">
-        <f>ROUND(D101/C101*100000*F101/2.5,8)/2</f>
+      <c r="E101">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F101" s="16">
@@ -6921,8 +6921,8 @@
         <f>VLOOKUP(B103,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E103" s="16">
-        <f>ROUND(D103/C103*100000*F103/2.5,8)/2</f>
+      <c r="E103">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F103" s="16">
@@ -7173,8 +7173,8 @@
         <f>VLOOKUP(B112,StdInfo!B:E,2,FALSE)</f>
         <v>0.37990000000000002</v>
       </c>
-      <c r="E112" s="16">
-        <f>ROUND(D112/C112*100000*F112/2.5,8)/2</f>
+      <c r="E112">
+        <f t="shared" si="3"/>
         <v>17.013948675000002</v>
       </c>
       <c r="F112" s="16">
@@ -7706,7 +7706,7 @@
         <v>0.38040000000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>33.983581180000002</v>
       </c>
       <c r="F131">
@@ -9498,7 +9498,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>8.2787515999999997</v>
       </c>
       <c r="F195">
@@ -10337,8 +10337,8 @@
         <f>VLOOKUP(B225,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E225" s="16">
-        <f>ROUND(D225/C225*100000*F225/2.5,8)/2</f>
+      <c r="E225">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F225" s="16">
@@ -10729,8 +10729,8 @@
         <f>VLOOKUP(B239,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E239" s="16">
-        <f>ROUND(D239/C239*100000*F239/2.5,8)/2</f>
+      <c r="E239">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F239" s="16">
@@ -11093,8 +11093,8 @@
         <f>VLOOKUP(B252,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E252" s="16">
-        <f>ROUND(D252/C252*100000*F252/2.5,8)/2</f>
+      <c r="E252">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F252" s="16">
@@ -11149,8 +11149,8 @@
         <f>VLOOKUP(B254,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E254" s="16">
-        <f>ROUND(D254/C254*100000*F254/2.5,8)/2</f>
+      <c r="E254">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F254" s="16">
@@ -11290,7 +11290,7 @@
         <v>0.01</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>1.3234033700000001</v>
       </c>
       <c r="F259">
@@ -12213,8 +12213,8 @@
         <f>VLOOKUP(B292,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E292" s="16">
-        <f>ROUND(D292/C292*100000*F292/2.5,8)/2</f>
+      <c r="E292">
+        <f t="shared" si="9"/>
         <v>0.66347840999999996</v>
       </c>
       <c r="F292" s="16">
@@ -13082,7 +13082,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>0.33263681</v>
       </c>
       <c r="F323">
@@ -14874,7 +14874,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>0.34827615000000001</v>
       </c>
       <c r="F387">
@@ -16666,7 +16666,7 @@
         <v>0.1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>14.09224785</v>
       </c>
       <c r="F451">
@@ -17248,8 +17248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G688" sqref="G688"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17298,7 +17298,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F2">
@@ -17326,7 +17326,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F3">
@@ -18025,8 +18025,8 @@
         <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="16">
-        <f>ROUND(D28/C28*100000*F28/2.5,8)/2</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F28" s="16">
@@ -18249,8 +18249,8 @@
         <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="16">
-        <f>ROUND(D36/C36*100000*F36/2.5,8)/2</f>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F36" s="16">
@@ -18333,8 +18333,8 @@
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="16">
-        <f>ROUND(D39/C39*100000*F39/2.5,8)/2</f>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F39" s="16">
@@ -18837,8 +18837,8 @@
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E57" s="16">
-        <f>ROUND(D57/C57*100000*F57/2.5,8)/2</f>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F57" s="16">
@@ -19118,7 +19118,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>0.21513024</v>
       </c>
       <c r="F67">
@@ -19453,8 +19453,8 @@
         <f>VLOOKUP(B79,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="16">
-        <f>ROUND(D79/C79*100000*F79/2.5,8)/2</f>
+      <c r="E79">
+        <f t="shared" si="2"/>
         <v>0.42107696500000003</v>
       </c>
       <c r="F79" s="16">
@@ -20910,7 +20910,7 @@
         <v>0.03</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>3.4433285499999999</v>
       </c>
       <c r="F131">
@@ -22702,7 +22702,7 @@
         <v>0.13</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F195">
@@ -24494,7 +24494,7 @@
         <v>0.13</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F259">
@@ -26286,7 +26286,7 @@
         <v>0.13</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F323">
@@ -28078,7 +28078,7 @@
         <v>0.13</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F387">
@@ -29870,7 +29870,7 @@
         <v>0.13</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E514" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F451">
@@ -31662,7 +31662,7 @@
         <v>0.13</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="17">ROUND(D515/C515*100000*F515/2.5,8)</f>
+        <f t="shared" ref="E515:E578" si="17">ROUND(D515/C515*100000*F515/2.5,8)/IF(G515=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F515">
@@ -33454,7 +33454,7 @@
         <v>0.13</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="19">ROUND(D579/C579*100000*F579/2.5,8)</f>
+        <f t="shared" ref="E579:E642" si="19">ROUND(D579/C579*100000*F579/2.5,8)/IF(G579=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F579">
@@ -35246,7 +35246,7 @@
         <v>0.13</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="21">ROUND(D643/C643*100000*F643/2.5,8)</f>
+        <f t="shared" ref="E643:E706" si="21">ROUND(D643/C643*100000*F643/2.5,8)/IF(G643=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F643">
@@ -36507,7 +36507,7 @@
       </c>
       <c r="E688">
         <f t="shared" si="21"/>
-        <v>0.70642011000000005</v>
+        <v>0.35321005500000002</v>
       </c>
       <c r="F688">
         <f>VLOOKUP(B688,StdInfo!B:E,3,FALSE)</f>
@@ -37038,7 +37038,7 @@
         <v>0.13</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E713" si="23">ROUND(D707/C707*100000*F707/2.5,8)</f>
+        <f t="shared" ref="E707:E713" si="23">ROUND(D707/C707*100000*F707/2.5,8)/IF(G707=TRUE,2,1)</f>
         <v>14.81481481</v>
       </c>
       <c r="F707">

--- a/doc/KeyV1/KeyV1_LipidMapName/standard_dict_V1_newname_102b.xlsx
+++ b/doc/KeyV1/KeyV1_LipidMapName/standard_dict_V1_newname_102b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1\KeyV1_newname\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LipidMapName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="3" r:id="rId1"/>
@@ -4040,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M471"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4092,7 @@
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F2">
@@ -4120,7 +4120,7 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F3">
@@ -5914,7 +5914,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>7.8160950600000003</v>
       </c>
       <c r="F67">
@@ -6193,8 +6193,8 @@
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E77" s="16">
-        <f>ROUND(D77/C77*100000*F77/2.5,8)/2</f>
+      <c r="E77">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F77" s="16">
@@ -6417,8 +6417,8 @@
         <f>VLOOKUP(B85,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E85" s="16">
-        <f>ROUND(D85/C85*100000*F85/2.5,8)/2</f>
+      <c r="E85">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F85" s="16">
@@ -6865,8 +6865,8 @@
         <f>VLOOKUP(B101,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E101" s="16">
-        <f>ROUND(D101/C101*100000*F101/2.5,8)/2</f>
+      <c r="E101">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F101" s="16">
@@ -6921,8 +6921,8 @@
         <f>VLOOKUP(B103,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E103" s="16">
-        <f>ROUND(D103/C103*100000*F103/2.5,8)/2</f>
+      <c r="E103">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F103" s="16">
@@ -7173,8 +7173,8 @@
         <f>VLOOKUP(B112,StdInfo!B:E,2,FALSE)</f>
         <v>0.37990000000000002</v>
       </c>
-      <c r="E112" s="16">
-        <f>ROUND(D112/C112*100000*F112/2.5,8)/2</f>
+      <c r="E112">
+        <f t="shared" si="3"/>
         <v>17.013948675000002</v>
       </c>
       <c r="F112" s="16">
@@ -7706,7 +7706,7 @@
         <v>0.38040000000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>33.983581180000002</v>
       </c>
       <c r="F131">
@@ -9498,7 +9498,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>8.2787515999999997</v>
       </c>
       <c r="F195">
@@ -10337,8 +10337,8 @@
         <f>VLOOKUP(B225,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E225" s="16">
-        <f>ROUND(D225/C225*100000*F225/2.5,8)/2</f>
+      <c r="E225">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F225" s="16">
@@ -10729,8 +10729,8 @@
         <f>VLOOKUP(B239,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E239" s="16">
-        <f>ROUND(D239/C239*100000*F239/2.5,8)/2</f>
+      <c r="E239">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F239" s="16">
@@ -11093,8 +11093,8 @@
         <f>VLOOKUP(B252,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E252" s="16">
-        <f>ROUND(D252/C252*100000*F252/2.5,8)/2</f>
+      <c r="E252">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F252" s="16">
@@ -11149,8 +11149,8 @@
         <f>VLOOKUP(B254,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E254" s="16">
-        <f>ROUND(D254/C254*100000*F254/2.5,8)/2</f>
+      <c r="E254">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F254" s="16">
@@ -11290,7 +11290,7 @@
         <v>0.01</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>1.3234033700000001</v>
       </c>
       <c r="F259">
@@ -12213,8 +12213,8 @@
         <f>VLOOKUP(B292,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E292" s="16">
-        <f>ROUND(D292/C292*100000*F292/2.5,8)/2</f>
+      <c r="E292">
+        <f t="shared" si="9"/>
         <v>0.66347840999999996</v>
       </c>
       <c r="F292" s="16">
@@ -13082,7 +13082,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>0.33263681</v>
       </c>
       <c r="F323">
@@ -14874,7 +14874,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>0.34827615000000001</v>
       </c>
       <c r="F387">
@@ -16666,7 +16666,7 @@
         <v>0.1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>14.09224785</v>
       </c>
       <c r="F451">
@@ -17248,8 +17248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G688" sqref="G688"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17298,7 +17298,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F2">
@@ -17326,7 +17326,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F3">
@@ -18025,8 +18025,8 @@
         <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="16">
-        <f>ROUND(D28/C28*100000*F28/2.5,8)/2</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F28" s="16">
@@ -18249,8 +18249,8 @@
         <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="16">
-        <f>ROUND(D36/C36*100000*F36/2.5,8)/2</f>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F36" s="16">
@@ -18333,8 +18333,8 @@
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="16">
-        <f>ROUND(D39/C39*100000*F39/2.5,8)/2</f>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F39" s="16">
@@ -18837,8 +18837,8 @@
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E57" s="16">
-        <f>ROUND(D57/C57*100000*F57/2.5,8)/2</f>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F57" s="16">
@@ -19118,7 +19118,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>0.21513024</v>
       </c>
       <c r="F67">
@@ -19453,8 +19453,8 @@
         <f>VLOOKUP(B79,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="16">
-        <f>ROUND(D79/C79*100000*F79/2.5,8)/2</f>
+      <c r="E79">
+        <f t="shared" si="2"/>
         <v>0.42107696500000003</v>
       </c>
       <c r="F79" s="16">
@@ -20910,7 +20910,7 @@
         <v>0.03</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>3.4433285499999999</v>
       </c>
       <c r="F131">
@@ -22702,7 +22702,7 @@
         <v>0.13</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F195">
@@ -24494,7 +24494,7 @@
         <v>0.13</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F259">
@@ -26286,7 +26286,7 @@
         <v>0.13</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F323">
@@ -28078,7 +28078,7 @@
         <v>0.13</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F387">
@@ -29870,7 +29870,7 @@
         <v>0.13</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E514" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F451">
@@ -31662,7 +31662,7 @@
         <v>0.13</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="17">ROUND(D515/C515*100000*F515/2.5,8)</f>
+        <f t="shared" ref="E515:E578" si="17">ROUND(D515/C515*100000*F515/2.5,8)/IF(G515=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F515">
@@ -33454,7 +33454,7 @@
         <v>0.13</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="19">ROUND(D579/C579*100000*F579/2.5,8)</f>
+        <f t="shared" ref="E579:E642" si="19">ROUND(D579/C579*100000*F579/2.5,8)/IF(G579=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F579">
@@ -35246,7 +35246,7 @@
         <v>0.13</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="21">ROUND(D643/C643*100000*F643/2.5,8)</f>
+        <f t="shared" ref="E643:E706" si="21">ROUND(D643/C643*100000*F643/2.5,8)/IF(G643=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F643">
@@ -36507,7 +36507,7 @@
       </c>
       <c r="E688">
         <f t="shared" si="21"/>
-        <v>0.70642011000000005</v>
+        <v>0.35321005500000002</v>
       </c>
       <c r="F688">
         <f>VLOOKUP(B688,StdInfo!B:E,3,FALSE)</f>
@@ -37038,7 +37038,7 @@
         <v>0.13</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E713" si="23">ROUND(D707/C707*100000*F707/2.5,8)</f>
+        <f t="shared" ref="E707:E713" si="23">ROUND(D707/C707*100000*F707/2.5,8)/IF(G707=TRUE,2,1)</f>
         <v>14.81481481</v>
       </c>
       <c r="F707">
